--- a/schede/UL UM.xlsx
+++ b/schede/UL UM.xlsx
@@ -415,18 +415,18 @@
   <dimension ref="A1:C1007"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.51"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="45.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
